--- a/jayud-mall/jayud-mall-admin/src/main/resources/template/Nanjing_bills.xlsx
+++ b/jayud-mall/jayud-mall-admin/src/main/resources/template/Nanjing_bills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -275,7 +275,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="11"/>
+      <color theme="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -308,6 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -315,7 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +338,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -352,16 +428,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,82 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -472,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,56 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -778,16 +728,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,8 +1134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="147955" y="196215"/>
-          <a:ext cx="5163185" cy="1133475"/>
+          <a:off x="164465" y="196215"/>
+          <a:ext cx="5679440" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,23 +1412,23 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.15740740740741" style="6"/>
-    <col min="2" max="2" width="6.15740740740741" style="6"/>
+    <col min="1" max="1" width="2.15833333333333" style="6"/>
+    <col min="2" max="2" width="6.15833333333333" style="6"/>
     <col min="3" max="3" width="12.5" style="6"/>
-    <col min="4" max="4" width="28.7407407407407" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.7416666666667" style="6" customWidth="1"/>
     <col min="5" max="7" width="20.3333333333333" style="6"/>
     <col min="8" max="8" width="22" style="6"/>
-    <col min="9" max="9" width="18.3703703703704" style="6" customWidth="1"/>
-    <col min="10" max="15" width="12.1574074074074" style="6"/>
+    <col min="9" max="9" width="18.3666666666667" style="6" customWidth="1"/>
+    <col min="10" max="15" width="12.1583333333333" style="6"/>
     <col min="16" max="16" width="20.3333333333333" style="6"/>
-    <col min="17" max="17" width="18.8981481481481" style="7"/>
+    <col min="17" max="17" width="18.9" style="7"/>
     <col min="18" max="257" width="11" style="4"/>
-    <col min="258" max="16384" width="9.13888888888889" style="4"/>
+    <col min="258" max="16384" width="9.14166666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16">
